--- a/miscellaneous/mining/sandbox-calculations.xlsx
+++ b/miscellaneous/mining/sandbox-calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="27580" windowHeight="17920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -26,19 +26,19 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>activity score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>overall score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>community interest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>project = ((num_commits / commit_range) * (num_commits / num_contributors))</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>eed3si9n/scalaxb</t>
@@ -48,121 +48,125 @@
   </si>
   <si>
     <t>community = ((avg_watchers * avg_forks) + (this_watchers * this_forks)) / (avg_watchers + this_watchers)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>twitter/ostrich</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>commits (last 7 days)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>averages</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>robey/kestrel</t>
   </si>
   <si>
+    <t>lift/lift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jboner/akka</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalatra/scalatra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>harrah/xsbt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">scalaz/scalaz </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdegoes/blueeyes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n8han/Unfiltered</t>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contributors</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>forks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>watchers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">szeiger/scala-query </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>percentage of forks -&gt; watchers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nkallen/querulous</t>
+  </si>
+  <si>
+    <t>scalate/scalate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongodb/casbah</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>djspiewak/anti-xml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>novus/salat</t>
+  </si>
+  <si>
+    <t>etorreborre/specs2</t>
+  </si>
+  <si>
+    <t>jsuereth/scala-arm</t>
+  </si>
+  <si>
+    <t>typesafehub/sbteclipse</t>
+  </si>
+  <si>
+    <t>n8han/conscript</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>codahale/dropwizard</t>
+  </si>
+  <si>
+    <t>mtkopone/scct</t>
+  </si>
+  <si>
     <t>timperrett/lift-shiro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lift/lift</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jboner/akka</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scalatra/scalatra</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>harrah/xsbt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">scalaz/scalaz </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdegoes/blueeyes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n8han/Unfiltered</t>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contributors</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>forks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>watchers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">szeiger/scala-query </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>percentage of forks -&gt; watchers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nkallen/querulous</t>
-  </si>
-  <si>
-    <t>scalate/scalate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mongodb/casbah</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>djspiewak/anti-xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>novus/salat</t>
-  </si>
-  <si>
-    <t>etorreborre/specs2</t>
-  </si>
-  <si>
-    <t>jsuereth/scala-arm</t>
-  </si>
-  <si>
-    <t>typesafehub/sbteclipse</t>
-  </si>
-  <si>
-    <t>n8han/conscript</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>codahale/dropwizard</t>
-  </si>
-  <si>
-    <t>mtkopone/scct</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -177,12 +181,18 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -197,9 +207,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,7 +267,7 @@
             <c:strRef>
               <c:f>data!$A$2:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>jboner/akka</c:v>
                 </c:pt>
@@ -267,36 +278,66 @@
                   <c:v>scalatra/scalatra</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>harrah/xsbt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>twitter/gizzard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lift/lift</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>scalaz/scalaz </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>nkallen/querulous</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>n8han/Unfiltered</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>twitter/ostrich</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>szeiger/scala-query </c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>scalate/scalate</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>timperrett/lift-shiro</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>mongodb/casbah</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>eed3si9n/scalaxb</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>n8han/conscript</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>novus/salat</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>codahale/dropwizard</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
+                  <c:v>mtkopone/scct</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>djspiewak/anti-xml</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
                   <c:v>typesafehub/sbteclipse</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
+                  <c:v>jsuereth/scala-arm</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>etorreborre/specs2</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>jdegoes/blueeyes</c:v>
                 </c:pt>
               </c:strCache>
@@ -307,7 +348,7 @@
               <c:f>data!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>92.46869633800567</c:v>
                 </c:pt>
@@ -318,47 +359,77 @@
                   <c:v>59.70644893827798</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>47.99945040344011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.87792599271596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.39629063890775</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>34.78426343479895</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>33.92348855100009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.02289752503932</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>30.55085275912025</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>29.25419534369955</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>28.39444527437507</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>28.13347940715406</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>27.9494809779745</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>27.23422749634357</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>26.5617396593674</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>26.35635016718552</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>26.27060051380861</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
+                  <c:v>26.00557845831698</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>25.97860433604336</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
                   <c:v>25.42271872345589</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
+                  <c:v>25.11901012720761</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.94461399837229</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>24.11592313634608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="586906568"/>
-        <c:axId val="552230072"/>
+        <c:axId val="473812968"/>
+        <c:axId val="473879592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="586906568"/>
+        <c:axId val="473812968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,14 +453,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552230072"/>
+        <c:crossAx val="473879592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="552230072"/>
+        <c:axId val="473879592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +486,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="586906568"/>
+        <c:crossAx val="473812968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -466,7 +537,7 @@
             <c:strRef>
               <c:f>data!$A$2:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>jboner/akka</c:v>
                 </c:pt>
@@ -477,36 +548,66 @@
                   <c:v>scalatra/scalatra</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>harrah/xsbt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>twitter/gizzard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lift/lift</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>scalaz/scalaz </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>nkallen/querulous</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>n8han/Unfiltered</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>twitter/ostrich</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>szeiger/scala-query </c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>scalate/scalate</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>timperrett/lift-shiro</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>mongodb/casbah</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>eed3si9n/scalaxb</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>n8han/conscript</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>novus/salat</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>codahale/dropwizard</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
+                  <c:v>mtkopone/scct</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>djspiewak/anti-xml</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
                   <c:v>typesafehub/sbteclipse</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
+                  <c:v>jsuereth/scala-arm</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>etorreborre/specs2</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>jdegoes/blueeyes</c:v>
                 </c:pt>
               </c:strCache>
@@ -517,7 +618,7 @@
               <c:f>data!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>93.80049357302872</c:v>
                 </c:pt>
@@ -527,48 +628,48 @@
                 <c:pt idx="2">
                   <c:v>60.87311560494465</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>34.7944675164316</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>30.70613226222584</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>28.50873098866078</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>36.7763365500112</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>27.26994178205786</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>26.70459680222454</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>27.07063588147124</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>44.5563147995229</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>26.03055238799142</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
                   <c:v>25.49414729488447</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>25.42204558532568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="552795832"/>
-        <c:axId val="555432600"/>
+        <c:axId val="473936632"/>
+        <c:axId val="569396312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="552795832"/>
+        <c:axId val="473936632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,14 +693,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="555432600"/>
+        <c:crossAx val="569396312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555432600"/>
+        <c:axId val="569396312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,7 +726,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552795832"/>
+        <c:crossAx val="473936632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -676,7 +777,7 @@
             <c:strRef>
               <c:f>data!$A$2:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>jboner/akka</c:v>
                 </c:pt>
@@ -687,36 +788,66 @@
                   <c:v>scalatra/scalatra</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>harrah/xsbt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>twitter/gizzard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lift/lift</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>scalaz/scalaz </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>nkallen/querulous</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>n8han/Unfiltered</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>twitter/ostrich</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>szeiger/scala-query </c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>scalate/scalate</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>timperrett/lift-shiro</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>mongodb/casbah</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>eed3si9n/scalaxb</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>n8han/conscript</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>novus/salat</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>codahale/dropwizard</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
+                  <c:v>mtkopone/scct</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>djspiewak/anti-xml</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
                   <c:v>typesafehub/sbteclipse</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
+                  <c:v>jsuereth/scala-arm</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>etorreborre/specs2</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>jdegoes/blueeyes</c:v>
                 </c:pt>
               </c:strCache>
@@ -727,7 +858,7 @@
               <c:f>data!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1.331797235023041</c:v>
                 </c:pt>
@@ -737,48 +868,48 @@
                 <c:pt idx="2">
                   <c:v>1.166666666666667</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>0.0102040816326531</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>0.15527950310559</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>0.114285714285714</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>8.642857142857142</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>0.0357142857142857</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>0.142857142857143</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>0.714285714285714</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>18.28571428571428</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>0.0519480519480519</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
                   <c:v>0.0714285714285714</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>1.306122448979592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="552442904"/>
-        <c:axId val="515403784"/>
+        <c:axId val="569431912"/>
+        <c:axId val="569428504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="552442904"/>
+        <c:axId val="569431912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,14 +933,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="515403784"/>
+        <c:crossAx val="569428504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515403784"/>
+        <c:axId val="569428504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +966,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552442904"/>
+        <c:crossAx val="569431912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1265,11 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1285,22 +1415,22 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1314,7 +1444,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>31</v>
@@ -1329,7 +1459,7 @@
         <v>775</v>
       </c>
       <c r="F2">
-        <f>D2/E2*100</f>
+        <f t="shared" ref="F2:F25" si="0">D2/E2*100</f>
         <v>14.709677419354838</v>
       </c>
       <c r="G2">
@@ -1362,7 +1492,7 @@
         <v>973</v>
       </c>
       <c r="F3">
-        <f>D3/E3*100</f>
+        <f t="shared" si="0"/>
         <v>7.2970195272353546</v>
       </c>
       <c r="G3">
@@ -1370,17 +1500,17 @@
         <v>62.199195280770653</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H4" si="0">(C3/7) * (C3/B3)</f>
+        <f t="shared" ref="H3:H4" si="1">(C3/7) * (C3/B3)</f>
         <v>7.5089285714285721</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I4" si="1">G3+H3</f>
+        <f t="shared" ref="I3:I4" si="2">G3+H3</f>
         <v>69.708123852199222</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -1395,7 +1525,7 @@
         <v>699</v>
       </c>
       <c r="F4">
-        <f>D4/E4*100</f>
+        <f t="shared" si="0"/>
         <v>10.157367668097281</v>
       </c>
       <c r="G4">
@@ -1403,17 +1533,17 @@
         <v>59.706448938277987</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.873115604944651</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1428,7 +1558,7 @@
         <v>594</v>
       </c>
       <c r="F5">
-        <f>D5/E5*100</f>
+        <f t="shared" si="0"/>
         <v>9.4276094276094273</v>
       </c>
       <c r="G5">
@@ -1436,7 +1566,7 @@
         <v>47.999450403440107</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1453,7 +1583,7 @@
         <v>910</v>
       </c>
       <c r="F6">
-        <f>D6/E6*100</f>
+        <f t="shared" si="0"/>
         <v>4.8351648351648358</v>
       </c>
       <c r="G6">
@@ -1461,9 +1591,9 @@
         <v>40.877925992715959</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>26</v>
@@ -1478,7 +1608,7 @@
         <v>284</v>
       </c>
       <c r="F7">
-        <f>D7/E7*100</f>
+        <f t="shared" si="0"/>
         <v>16.901408450704224</v>
       </c>
       <c r="G7">
@@ -1488,7 +1618,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -1503,7 +1633,7 @@
         <v>286</v>
       </c>
       <c r="F8">
-        <f>D8/E8*100</f>
+        <f t="shared" si="0"/>
         <v>13.636363636363635</v>
       </c>
       <c r="G8">
@@ -1519,9 +1649,9 @@
         <v>34.794467516431602</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1536,7 +1666,7 @@
         <v>192</v>
       </c>
       <c r="F9">
-        <f>D9/E9*100</f>
+        <f t="shared" si="0"/>
         <v>20.3125</v>
       </c>
       <c r="G9">
@@ -1544,9 +1674,9 @@
         <v>33.923488551000091</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -1561,7 +1691,7 @@
         <v>235</v>
       </c>
       <c r="F10">
-        <f>D10/E10*100</f>
+        <f t="shared" si="0"/>
         <v>14.468085106382977</v>
       </c>
       <c r="G10">
@@ -1586,7 +1716,7 @@
         <v>48</v>
       </c>
       <c r="F11">
-        <f>D11/E11*100</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666657</v>
       </c>
       <c r="G11">
@@ -1602,9 +1732,9 @@
         <v>30.706132262225836</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1619,7 +1749,7 @@
         <v>222</v>
       </c>
       <c r="F12">
-        <f>D12/E12*100</f>
+        <f t="shared" si="0"/>
         <v>12.612612612612612</v>
       </c>
       <c r="G12">
@@ -1629,7 +1759,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -1644,7 +1774,7 @@
         <v>150</v>
       </c>
       <c r="F13">
-        <f>D13/E13*100</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G13">
@@ -1652,50 +1782,50 @@
         <v>28.394445274375066</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H14" si="2">(C13/7) * (C13/B13)</f>
+        <f t="shared" ref="H13:H14" si="3">(C13/7) * (C13/B13)</f>
         <v>0.11428571428571428</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I14" si="3">G13+H13</f>
+        <f t="shared" ref="I13:I14" si="4">G13+H13</f>
         <v>28.50873098866078</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>24</v>
       </c>
-      <c r="F14">
-        <f>D14/E14*100</f>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <f>((E26*D26) + (E14*D14)) / (E26 + E14)</f>
         <v>28.133479407154059</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
+      <c r="H14" s="2">
+        <f t="shared" si="3"/>
         <v>8.6428571428571423</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
+      <c r="I14" s="2">
+        <f t="shared" si="4"/>
         <v>36.776336550011202</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -1710,7 +1840,7 @@
         <v>127</v>
       </c>
       <c r="F15">
-        <f>D15/E15*100</f>
+        <f t="shared" si="0"/>
         <v>18.110236220472441</v>
       </c>
       <c r="G15">
@@ -1735,7 +1865,7 @@
         <v>45</v>
       </c>
       <c r="F16">
-        <f>D16/E16*100</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G16">
@@ -1743,17 +1873,17 @@
         <v>27.234227496343575</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H19" si="4">(C16/7) * (C16/B16)</f>
+        <f t="shared" ref="H16:H19" si="5">(C16/7) * (C16/B16)</f>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:I19" si="5">G16+H16</f>
+        <f t="shared" ref="I16:I19" si="6">G16+H16</f>
         <v>27.26994178205786</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1768,7 +1898,7 @@
         <v>57</v>
       </c>
       <c r="F17">
-        <f>D17/E17*100</f>
+        <f t="shared" si="0"/>
         <v>15.789473684210526</v>
       </c>
       <c r="G17">
@@ -1776,17 +1906,17 @@
         <v>26.561739659367401</v>
       </c>
       <c r="H17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="I17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.704596802224543</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1801,7 +1931,7 @@
         <v>93</v>
       </c>
       <c r="F18">
-        <f>D18/E18*100</f>
+        <f t="shared" si="0"/>
         <v>16.129032258064516</v>
       </c>
       <c r="G18">
@@ -1809,17 +1939,17 @@
         <v>26.356350167185521</v>
       </c>
       <c r="H18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="I18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.070635881471237</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1834,7 +1964,7 @@
         <v>56</v>
       </c>
       <c r="F19">
-        <f>D19/E19*100</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="G19">
@@ -1842,17 +1972,17 @@
         <v>26.27060051380861</v>
       </c>
       <c r="H19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.285714285714285</v>
       </c>
       <c r="I19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44.556314799522895</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1867,7 +1997,7 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <f>D20/E20*100</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G20">
@@ -1877,7 +2007,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -1892,7 +2022,7 @@
         <v>116</v>
       </c>
       <c r="F21">
-        <f>D21/E21*100</f>
+        <f t="shared" si="0"/>
         <v>13.793103448275861</v>
       </c>
       <c r="G21">
@@ -1900,17 +2030,17 @@
         <v>25.978604336043364</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H22" si="6">(C21/7) * (C21/B21)</f>
+        <f t="shared" ref="H21:H22" si="7">(C21/7) * (C21/B21)</f>
         <v>5.1948051948051945E-2</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I22" si="7">G21+H21</f>
+        <f t="shared" ref="I21:I22" si="8">G21+H21</f>
         <v>26.030552387991417</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1925,7 +2055,7 @@
         <v>75</v>
       </c>
       <c r="F22">
-        <f>D22/E22*100</f>
+        <f t="shared" si="0"/>
         <v>10.666666666666668</v>
       </c>
       <c r="G22">
@@ -1933,17 +2063,17 @@
         <v>25.422718723455894</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="I22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25.494147294884467</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1958,7 +2088,7 @@
         <v>69</v>
       </c>
       <c r="F23">
-        <f>D23/E23*100</f>
+        <f t="shared" si="0"/>
         <v>7.2463768115942031</v>
       </c>
       <c r="G23">
@@ -1966,9 +2096,9 @@
         <v>25.119010127207613</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1983,7 +2113,7 @@
         <v>90</v>
       </c>
       <c r="F24">
-        <f>D24/E24*100</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G24">
@@ -1993,7 +2123,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -2008,7 +2138,7 @@
         <v>271</v>
       </c>
       <c r="F25">
-        <f>D25/E25*100</f>
+        <f t="shared" si="0"/>
         <v>6.6420664206642073</v>
       </c>
       <c r="G25">
@@ -2037,27 +2167,27 @@
         <v>12</v>
       </c>
       <c r="D26" s="1">
-        <f>AVERAGE(D2:D25)</f>
+        <f t="shared" ref="D26:I26" si="9">AVERAGE(D2:D25)</f>
         <v>30.291666666666668</v>
       </c>
       <c r="E26" s="1">
-        <f>AVERAGE(E2:E25)</f>
+        <f t="shared" si="9"/>
         <v>268.375</v>
       </c>
       <c r="F26" s="1">
-        <f>AVERAGE(F2:F25)</f>
+        <f t="shared" si="9"/>
         <v>15.051448508061398</v>
       </c>
       <c r="G26" s="1">
-        <f>AVERAGE(G2:G25)</f>
+        <f t="shared" si="9"/>
         <v>35.236269895071963</v>
       </c>
       <c r="H26" s="1">
-        <f>AVERAGE(H2:H25)</f>
+        <f t="shared" si="9"/>
         <v>2.8241492439947877</v>
       </c>
       <c r="I26" s="1">
-        <f>AVERAGE(I2:I25)</f>
+        <f t="shared" si="9"/>
         <v>39.836831062927153</v>
       </c>
     </row>
@@ -2072,18 +2202,11 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <autoFilter ref="A1:H26">
-    <filterColumn colId="2">
-      <customFilters and="1">
-        <customFilter operator="greaterThan" val="0"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H26"/>
   <sortState ref="A2:G1048576">
     <sortCondition descending="1" ref="G3:G1048576"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -2099,15 +2222,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
